--- a/草稿/chess board.xlsx
+++ b/草稿/chess board.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>白车</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss在场地北侧固定（大boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,15 +515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -547,7 +556,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -571,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
         <v>2</v>
@@ -595,7 +604,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -609,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>3</v>
@@ -618,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="3"/>
@@ -626,6 +635,11 @@
         <v>12</v>
       </c>
       <c r="O5" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
